--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H2">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N2">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q2">
-        <v>1.189745350090904</v>
+        <v>4.056028510371556</v>
       </c>
       <c r="R2">
-        <v>1.189745350090904</v>
+        <v>36.504256593344</v>
       </c>
       <c r="S2">
-        <v>0.0003297481213629271</v>
+        <v>0.001056595490574519</v>
       </c>
       <c r="T2">
-        <v>0.0003297481213629271</v>
+        <v>0.001056595490574519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H3">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N3">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q3">
-        <v>38.21307859347488</v>
+        <v>76.70561250015822</v>
       </c>
       <c r="R3">
-        <v>38.21307859347488</v>
+        <v>690.350512501424</v>
       </c>
       <c r="S3">
-        <v>0.01059108226540196</v>
+        <v>0.01998181325949291</v>
       </c>
       <c r="T3">
-        <v>0.01059108226540196</v>
+        <v>0.01998181325949291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H4">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q4">
-        <v>10.71591159446158</v>
+        <v>21.38605225804312</v>
       </c>
       <c r="R4">
-        <v>10.71591159446158</v>
+        <v>192.474470322388</v>
       </c>
       <c r="S4">
-        <v>0.002970006746985755</v>
+        <v>0.005571066948681137</v>
       </c>
       <c r="T4">
-        <v>0.002970006746985755</v>
+        <v>0.005571066948681136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H5">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N5">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O5">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P5">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q5">
-        <v>18.917017604157</v>
+        <v>34.89683068479645</v>
       </c>
       <c r="R5">
-        <v>18.917017604157</v>
+        <v>314.071476163168</v>
       </c>
       <c r="S5">
-        <v>0.005243013571167628</v>
+        <v>0.009090624940780001</v>
       </c>
       <c r="T5">
-        <v>0.005243013571167628</v>
+        <v>0.009090624940779999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H6">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N6">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P6">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q6">
-        <v>607.5900867413071</v>
+        <v>659.9516658097698</v>
       </c>
       <c r="R6">
-        <v>607.5900867413071</v>
+        <v>5939.564992287927</v>
       </c>
       <c r="S6">
-        <v>0.1683988003368753</v>
+        <v>0.1719174192954249</v>
       </c>
       <c r="T6">
-        <v>0.1683988003368753</v>
+        <v>0.1719174192954249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H7">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P7">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q7">
-        <v>170.3835936501296</v>
+        <v>183.9990628164429</v>
       </c>
       <c r="R7">
-        <v>170.3835936501296</v>
+        <v>1655.991565347986</v>
       </c>
       <c r="S7">
-        <v>0.04722327337770373</v>
+        <v>0.04793175874988656</v>
       </c>
       <c r="T7">
-        <v>0.04722327337770373</v>
+        <v>0.04793175874988656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N8">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O8">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P8">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q8">
-        <v>65.54288786486458</v>
+        <v>113.4751163234293</v>
       </c>
       <c r="R8">
-        <v>65.54288786486458</v>
+        <v>1021.276046910864</v>
       </c>
       <c r="S8">
-        <v>0.01816577315514513</v>
+        <v>0.02956026958222025</v>
       </c>
       <c r="T8">
-        <v>0.01816577315514513</v>
+        <v>0.02956026958222024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N9">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O9">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P9">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q9">
-        <v>2105.152606843148</v>
+        <v>2145.98548280865</v>
       </c>
       <c r="R9">
-        <v>2105.152606843148</v>
+        <v>19313.86934527784</v>
       </c>
       <c r="S9">
-        <v>0.5834610887411813</v>
+        <v>0.5590292519335102</v>
       </c>
       <c r="T9">
-        <v>0.5834610887411813</v>
+        <v>0.5590292519335102</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N10">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O10">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P10">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q10">
-        <v>590.3379172290383</v>
+        <v>598.3155102275338</v>
       </c>
       <c r="R10">
-        <v>590.3379172290383</v>
+        <v>5384.839592047803</v>
       </c>
       <c r="S10">
-        <v>0.1636172136841763</v>
+        <v>0.1558611997994298</v>
       </c>
       <c r="T10">
-        <v>0.1636172136841763</v>
+        <v>0.1558611997994298</v>
       </c>
     </row>
   </sheetData>
